--- a/data_for_tables.xlsx
+++ b/data_for_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Documents/Southampton/Writings/papers/2019/Beach_profile/JGR/data_and_codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Documents/Southampton/Writings/papers/2019/Beach_profile/JGR_rev1/data_and_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB00C8-45C5-7B46-866A-56C2CD7BD365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AABA231-8BBA-D741-91CA-89BDA4E2E37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="31480" windowHeight="19180" xr2:uid="{EA52902F-6A6A-8B49-B418-F388BEEE3E73}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>eq. 11 high order</t>
   </si>
   <si>
-    <t>eq. 13 high order</t>
+    <t>eq. C1 low order</t>
   </si>
   <si>
-    <t>eq. 13 low order</t>
+    <t>eq. C1 high order</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>These data</a:t>
+            <a:t>Some</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> of t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>hese data</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
@@ -360,8 +368,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -377,7 +385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="850900" y="6997700"/>
-          <a:ext cx="11480800" cy="3136900"/>
+          <a:ext cx="11480800" cy="3708400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,15 +488,31 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>	eq. 11 low order = eq. 14 = eq. 16</a:t>
+            <a:t>	eq. 11 low order = eq. 13</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>	eq. 13 low order = eq. 15</a:t>
+            <a:t>	eq. C1 low order = eq. C1, whereas 'eq. C1 high order' is not shown in the manuscript (it would be a cubic polynomial of h)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>6. Data on C1 above is not shown in the manuscript,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> but just discussed briefly in Appendix C.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -796,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A26EBD-10F2-3340-9696-34E699407AF3}">
   <dimension ref="B3:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +1014,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8">
         <v>7.9790000000000001</v>
@@ -1007,7 +1031,7 @@
         <v>0.93201728770003511</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8">
         <v>9.5630000000000006</v>
@@ -1024,7 +1048,7 @@
         <v>0.86802214759008811</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8">
         <v>10.488</v>
@@ -1043,7 +1067,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11">
         <v>6.1150000000000002</v>
@@ -1060,7 +1084,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="11">
         <v>6.9080000000000004</v>
@@ -1077,7 +1101,7 @@
         <v>0.62703095216483618</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="11">
         <v>8.6310000000000002</v>
@@ -1376,7 +1400,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8">
         <v>6.6559999999999997</v>
@@ -1393,7 +1417,7 @@
         <v>1.0468700849323687</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="8">
         <v>6.1989999999999998</v>
@@ -1410,7 +1434,7 @@
         <v>0.98678764724609991</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8">
         <v>9.0459999999999994</v>
@@ -1429,7 +1453,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11">
         <v>5.3479999999999999</v>
@@ -1446,7 +1470,7 @@
         <v>0.84114501415539478</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="11">
         <v>5.0250000000000004</v>
@@ -1463,7 +1487,7 @@
         <v>0.7999044890162369</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" s="11">
         <v>7.6479999999999997</v>
@@ -1762,7 +1786,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8">
         <v>6.7320000000000002</v>
@@ -1779,7 +1803,7 @@
         <v>0.90617848970251713</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="8">
         <v>9.0139999999999993</v>
@@ -1796,7 +1820,7 @@
         <v>0.92612760710983244</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8">
         <v>15.289</v>
@@ -1815,7 +1839,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="11">
         <v>5.2869999999999999</v>
@@ -1832,7 +1856,7 @@
         <v>0.71167048054919901</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="11">
         <v>6.7629999999999999</v>
@@ -1849,7 +1873,7 @@
         <v>0.69485256344395352</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O27" s="11">
         <v>11.916</v>
